--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrz_properties_postprocessed_for_pyrz1_to_pyrz3.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrz_properties_postprocessed_for_pyrz1_to_pyrz3.xlsx
@@ -3659,7 +3659,8 @@
     <col min="22" max="22" width="24.7109375" customWidth="1"/>
     <col min="23" max="23" width="21.7109375" customWidth="1"/>
     <col min="24" max="24" width="19.7109375" customWidth="1"/>
-    <col min="25" max="26" width="22.7109375" customWidth="1"/>
+    <col min="25" max="25" width="21.7109375" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" customWidth="1"/>
     <col min="27" max="27" width="21.7109375" customWidth="1"/>
     <col min="28" max="28" width="22.7109375" customWidth="1"/>
     <col min="29" max="30" width="21.7109375" customWidth="1"/>
@@ -4690,7 +4691,7 @@
         <v>516.7440195736001</v>
       </c>
       <c r="Y3">
-        <v>0.8751458432125652</v>
+        <v>0.8751458432125653</v>
       </c>
       <c r="Z3">
         <v>0.02697</v>
@@ -5007,8 +5008,14 @@
       <c r="EA3">
         <v>6.929885151399707E-11</v>
       </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
       <c r="EC3">
         <v>5.268475383740666E-11</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
       </c>
       <c r="EE3">
         <v>1.075214559241299E-10</v>
@@ -5495,7 +5502,7 @@
         <v>0.0441637546893565</v>
       </c>
       <c r="Y5">
-        <v>5.045530689151341E-05</v>
+        <v>5.04553068915781E-05</v>
       </c>
       <c r="Z5">
         <v>0.001217849329270985</v>
@@ -5811,6 +5818,9 @@
       </c>
       <c r="EA5">
         <v>3.875195588822548E-11</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
       </c>
       <c r="EC5">
         <v>2.116297945143931E-11</v>
@@ -6213,6 +6223,9 @@
       <c r="EC6">
         <v>1.636611737686441E-11</v>
       </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
       <c r="EE6">
         <v>2.57545079676021E-13</v>
       </c>
@@ -6285,7 +6298,7 @@
         <v>516.8198107614608</v>
       </c>
       <c r="Y7">
-        <v>0.8751458432125652</v>
+        <v>0.8751458432125653</v>
       </c>
       <c r="Z7">
         <v>0.02906</v>
@@ -6610,6 +6623,9 @@
       </c>
       <c r="EC7">
         <v>5.268475383740666E-11</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
       </c>
       <c r="EE7">
         <v>1.075214559241299E-10</v>
@@ -6683,7 +6699,7 @@
         <v>0.07579118786065919</v>
       </c>
       <c r="Y8">
-        <v>8.658837252584206E-05</v>
+        <v>8.658837252595308E-05</v>
       </c>
       <c r="Z8">
         <v>0.002089999999999998</v>
@@ -7008,6 +7024,9 @@
       </c>
       <c r="EC8">
         <v>3.631863646054225E-11</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
       </c>
       <c r="EE8">
         <v>1.072639108444539E-10</v>
@@ -7557,7 +7576,7 @@
         <v>516.7440195736001</v>
       </c>
       <c r="Y10">
-        <v>0.8751458432125652</v>
+        <v>0.8751458432125653</v>
       </c>
       <c r="Z10">
         <v>0.02697</v>
@@ -7874,8 +7893,14 @@
       <c r="EA10">
         <v>6.929885151399707E-11</v>
       </c>
+      <c r="EB10">
+        <v>0</v>
+      </c>
       <c r="EC10">
         <v>5.268475383740666E-11</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
       </c>
       <c r="EE10">
         <v>1.075214559241299E-10</v>
@@ -7991,7 +8016,7 @@
         <v>542.8262287392901</v>
       </c>
       <c r="Y11">
-        <v>0.8702124445649645</v>
+        <v>0.8702124445649647</v>
       </c>
       <c r="Z11">
         <v>-0.04316</v>
@@ -8749,7 +8774,7 @@
         <v>5.050990001969911</v>
       </c>
       <c r="DZ12">
-        <v>0.007353015139217101</v>
+        <v>0.007353015135351787</v>
       </c>
       <c r="EA12">
         <v>0.001099723443374741</v>
@@ -8800,7 +8825,7 @@
         <v>4.09544</v>
       </c>
       <c r="EQ12">
-        <v>0.2603333333333333</v>
+        <v>0.2603333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:147">
@@ -8841,7 +8866,7 @@
         <v>542.8287856291615</v>
       </c>
       <c r="Y13">
-        <v>0.8702147479223845</v>
+        <v>0.8702147479223847</v>
       </c>
       <c r="Z13">
         <v>-0.04316916729805466</v>
@@ -9156,7 +9181,7 @@
         <v>5.001151646432033</v>
       </c>
       <c r="DZ13">
-        <v>6.081511815482602E-05</v>
+        <v>6.081511814309274E-05</v>
       </c>
       <c r="EA13">
         <v>9.133357934963655E-06</v>
@@ -9248,7 +9273,7 @@
         <v>0.065531431803953</v>
       </c>
       <c r="Y14">
-        <v>5.903355923599167E-05</v>
+        <v>5.903355923597439E-05</v>
       </c>
       <c r="Z14">
         <v>0.0002349519132566203</v>
@@ -9563,7 +9588,7 @@
         <v>0.003889162283783552</v>
       </c>
       <c r="DZ14">
-        <v>0.0005690506635229367</v>
+        <v>0.0005690506632222204</v>
       </c>
       <c r="EA14">
         <v>8.510477084536098E-05</v>
@@ -9649,7 +9674,7 @@
         <v>542.8262287392901</v>
       </c>
       <c r="Y15">
-        <v>0.8702124445649645</v>
+        <v>0.8702124445649647</v>
       </c>
       <c r="Z15">
         <v>-0.04618</v>
@@ -10365,7 +10390,7 @@
         <v>5.050990001969911</v>
       </c>
       <c r="DZ16">
-        <v>0.007353015139217101</v>
+        <v>0.007353015135351787</v>
       </c>
       <c r="EA16">
         <v>0.001099723443374741</v>
@@ -10451,7 +10476,7 @@
         <v>0.8423209724271601</v>
       </c>
       <c r="Y17">
-        <v>0.0007587993067244003</v>
+        <v>0.0007587993067241783</v>
       </c>
       <c r="Z17">
         <v>0.003020000000000002</v>
@@ -10766,7 +10791,7 @@
         <v>0.04999010194991627</v>
       </c>
       <c r="DZ17">
-        <v>0.007314403104954694</v>
+        <v>0.00731440310108938</v>
       </c>
       <c r="EA17">
         <v>0.001093910683214018</v>
@@ -10888,7 +10913,7 @@
         <v>542.8262287392901</v>
       </c>
       <c r="Y18">
-        <v>0.8702124445649645</v>
+        <v>0.8702124445649647</v>
       </c>
       <c r="Z18">
         <v>-0.04316</v>
@@ -11646,7 +11671,7 @@
         <v>5.050990001969911</v>
       </c>
       <c r="DZ19">
-        <v>0.007353015139217101</v>
+        <v>0.007353015135351787</v>
       </c>
       <c r="EA19">
         <v>0.001099723443374741</v>
@@ -11697,7 +11722,7 @@
         <v>4.09544</v>
       </c>
       <c r="EQ19">
-        <v>0.2603333333333333</v>
+        <v>0.2603333333333334</v>
       </c>
     </row>
     <row r="20" spans="1:147">
@@ -12089,7 +12114,7 @@
         <v>4.254703279900961</v>
       </c>
       <c r="DZ20">
-        <v>7.577060977015831E-06</v>
+        <v>7.573309027799888E-06</v>
       </c>
       <c r="EA20">
         <v>1.140102126384316E-06</v>
@@ -12217,7 +12242,7 @@
         <v>474.8207610302745</v>
       </c>
       <c r="Y21">
-        <v>0.8835090055130196</v>
+        <v>0.8835090055130198</v>
       </c>
       <c r="Z21">
         <v>0.0143</v>
@@ -12466,7 +12491,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="DD21">
-        <v>1.761721605960462</v>
+        <v>1.761721605960461</v>
       </c>
       <c r="DE21">
         <v>4.407096549884062</v>
@@ -12550,7 +12575,7 @@
         <v>5.122830262229761E-06</v>
       </c>
       <c r="EF21">
-        <v>2.215497510409518E-05</v>
+        <v>2.215625792596615E-05</v>
       </c>
       <c r="EG21">
         <v>3.330007032858031E-06</v>
@@ -12939,7 +12964,7 @@
         <v>4.292374120124956</v>
       </c>
       <c r="DZ22">
-        <v>8.149240000907897E-06</v>
+        <v>8.146195494025148E-06</v>
       </c>
       <c r="EA22">
         <v>1.225796179123666E-06</v>
@@ -12957,7 +12982,7 @@
         <v>1.030719227037444E-05</v>
       </c>
       <c r="EF22">
-        <v>1.198816425945217E-05</v>
+        <v>1.198840613972433E-05</v>
       </c>
       <c r="EG22">
         <v>1.801712253668403E-06</v>
@@ -13031,7 +13056,7 @@
         <v>0.1969207816931677</v>
       </c>
       <c r="Y23">
-        <v>3.445736969312994E-05</v>
+        <v>3.445736969300711E-05</v>
       </c>
       <c r="Z23">
         <v>0.001421658126919178</v>
@@ -13280,7 +13305,7 @@
         <v>0.7744441158314591</v>
       </c>
       <c r="DD23">
-        <v>0.04592536436122545</v>
+        <v>0.04592536436122496</v>
       </c>
       <c r="DE23">
         <v>0</v>
@@ -13346,7 +13371,7 @@
         <v>0.1105180625182169</v>
       </c>
       <c r="DZ23">
-        <v>1.678648969816101E-06</v>
+        <v>1.680724451954091E-06</v>
       </c>
       <c r="EA23">
         <v>2.514077366412005E-07</v>
@@ -13364,7 +13389,7 @@
         <v>3.534250753626363E-06</v>
       </c>
       <c r="EF23">
-        <v>6.930854526209131E-06</v>
+        <v>6.93156415038744E-06</v>
       </c>
       <c r="EG23">
         <v>1.041859531920912E-06</v>
@@ -13432,7 +13457,7 @@
         <v>474.4647778305385</v>
       </c>
       <c r="Y24">
-        <v>0.8835090055130196</v>
+        <v>0.8835090055130198</v>
       </c>
       <c r="Z24">
         <v>0.0143</v>
@@ -13747,7 +13772,7 @@
         <v>4.254703279900961</v>
       </c>
       <c r="DZ24">
-        <v>7.577060977015831E-06</v>
+        <v>7.573309027799888E-06</v>
       </c>
       <c r="EA24">
         <v>1.140102126384316E-06</v>
@@ -14082,7 +14107,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="DD25">
-        <v>1.761721605960462</v>
+        <v>1.761721605960461</v>
       </c>
       <c r="DE25">
         <v>4.407096549884062</v>
@@ -14166,7 +14191,7 @@
         <v>1.151186589944251E-05</v>
       </c>
       <c r="EF25">
-        <v>2.215497510409518E-05</v>
+        <v>2.215625792596615E-05</v>
       </c>
       <c r="EG25">
         <v>3.330007032858031E-06</v>
@@ -14234,7 +14259,7 @@
         <v>0.3559831997360448</v>
       </c>
       <c r="Y26">
-        <v>6.229024997961297E-05</v>
+        <v>6.229024997939092E-05</v>
       </c>
       <c r="Z26">
         <v>0.002569999999999999</v>
@@ -14483,7 +14508,7 @@
         <v>1.4</v>
       </c>
       <c r="DD26">
-        <v>0.08302149734417785</v>
+        <v>0.08302149734417696</v>
       </c>
       <c r="DE26">
         <v>0</v>
@@ -14549,7 +14574,7 @@
         <v>0.1997888348075154</v>
       </c>
       <c r="DZ26">
-        <v>3.034574748133269E-06</v>
+        <v>3.038326697349212E-06</v>
       </c>
       <c r="EA26">
         <v>4.54481897534721E-07</v>
@@ -14567,7 +14592,7 @@
         <v>6.389035637212748E-06</v>
       </c>
       <c r="EF26">
-        <v>1.252924018445829E-05</v>
+        <v>1.253052300632926E-05</v>
       </c>
       <c r="EG26">
         <v>1.883419752144789E-06</v>
@@ -14986,7 +15011,7 @@
         <v>4.254703279900961</v>
       </c>
       <c r="DZ27">
-        <v>7.577060977015831E-06</v>
+        <v>7.573309027799888E-06</v>
       </c>
       <c r="EA27">
         <v>1.140102126384316E-06</v>
@@ -15114,7 +15139,7 @@
         <v>474.8207610302745</v>
       </c>
       <c r="Y28">
-        <v>0.8835090055130196</v>
+        <v>0.8835090055130198</v>
       </c>
       <c r="Z28">
         <v>0.0143</v>
@@ -15363,7 +15388,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="DD28">
-        <v>1.761721605960462</v>
+        <v>1.761721605960461</v>
       </c>
       <c r="DE28">
         <v>4.407096549884062</v>
@@ -15447,7 +15472,7 @@
         <v>5.122830262229761E-06</v>
       </c>
       <c r="EF28">
-        <v>2.215497510409518E-05</v>
+        <v>2.215625792596615E-05</v>
       </c>
       <c r="EG28">
         <v>3.330007032858031E-06</v>
@@ -19199,22 +19224,22 @@
         <v>0.8750780231712223</v>
       </c>
       <c r="CB2">
-        <v>5.045530689151341E-05</v>
+        <v>5.04553068915781E-05</v>
       </c>
       <c r="CC2">
         <v>0.8750592548400393</v>
       </c>
       <c r="CD2">
-        <v>0.8751458432125652</v>
+        <v>0.8751458432125653</v>
       </c>
       <c r="CE2">
-        <v>8.658837252584206E-05</v>
+        <v>8.658837252595308E-05</v>
       </c>
       <c r="CF2">
         <v>0.8750592548400393</v>
       </c>
       <c r="CG2">
-        <v>0.8751458432125652</v>
+        <v>0.8751458432125653</v>
       </c>
       <c r="CH2">
         <v>0.02860698522413748</v>
@@ -21439,6 +21464,9 @@
       <c r="AEV2">
         <v>0</v>
       </c>
+      <c r="AEW2">
+        <v>0</v>
+      </c>
       <c r="AEX2">
         <v>0</v>
       </c>
@@ -21449,6 +21477,9 @@
         <v>0</v>
       </c>
       <c r="AFA2">
+        <v>0</v>
+      </c>
+      <c r="AFB2">
         <v>0</v>
       </c>
       <c r="AFC2">
@@ -21473,6 +21504,18 @@
         <v>5.268475383740666E-11</v>
       </c>
       <c r="AFJ2">
+        <v>0</v>
+      </c>
+      <c r="AFL2">
+        <v>0</v>
+      </c>
+      <c r="AFM2">
+        <v>0</v>
+      </c>
+      <c r="AFN2">
+        <v>0</v>
+      </c>
+      <c r="AFP2">
         <v>0</v>
       </c>
       <c r="AFQ2">
@@ -21943,22 +21986,22 @@
         <v>543.6685497117172</v>
       </c>
       <c r="CA3">
-        <v>0.8702147479223845</v>
+        <v>0.8702147479223847</v>
       </c>
       <c r="CB3">
-        <v>5.903355923599167E-05</v>
+        <v>5.903355923597439E-05</v>
       </c>
       <c r="CC3">
-        <v>0.8702124445649645</v>
+        <v>0.8702124445649647</v>
       </c>
       <c r="CD3">
         <v>0.8709712438716889</v>
       </c>
       <c r="CE3">
-        <v>0.0007587993067244003</v>
+        <v>0.0007587993067241783</v>
       </c>
       <c r="CF3">
-        <v>0.8702124445649645</v>
+        <v>0.8702124445649647</v>
       </c>
       <c r="CG3">
         <v>0.8709712438716889</v>
@@ -24148,25 +24191,25 @@
         <v>5.050990001969911</v>
       </c>
       <c r="AEH3">
-        <v>6.081511815482602E-05</v>
+        <v>6.081511814309274E-05</v>
       </c>
       <c r="AEI3">
-        <v>0.0005690506635229367</v>
+        <v>0.0005690506632222204</v>
       </c>
       <c r="AEJ3">
         <v>3.861203426240675E-05</v>
       </c>
       <c r="AEK3">
-        <v>0.007353015139217101</v>
+        <v>0.007353015135351787</v>
       </c>
       <c r="AEL3">
-        <v>0.007314403104954694</v>
+        <v>0.00731440310108938</v>
       </c>
       <c r="AEM3">
         <v>3.861203426240675E-05</v>
       </c>
       <c r="AEN3">
-        <v>0.007353015139217101</v>
+        <v>0.007353015135351787</v>
       </c>
       <c r="AEO3">
         <v>9.133357934963655E-06</v>
@@ -24723,22 +24766,22 @@
         <v>0.8835595507320181</v>
       </c>
       <c r="CB4">
-        <v>3.445736969312994E-05</v>
+        <v>3.445736969300711E-05</v>
       </c>
       <c r="CC4">
-        <v>0.8835090055130196</v>
+        <v>0.8835090055130198</v>
       </c>
       <c r="CD4">
         <v>0.8835712957629992</v>
       </c>
       <c r="CE4">
-        <v>6.229024997961297E-05</v>
+        <v>6.229024997939092E-05</v>
       </c>
       <c r="CF4">
         <v>0.8835712957629992</v>
       </c>
       <c r="CG4">
-        <v>0.8835090055130196</v>
+        <v>0.8835090055130198</v>
       </c>
       <c r="CH4">
         <v>0.01638541806893793</v>
@@ -26466,22 +26509,22 @@
         <v>1.694354084298271</v>
       </c>
       <c r="YK4">
-        <v>0.04592536436122545</v>
+        <v>0.04592536436122496</v>
       </c>
       <c r="YL4">
         <v>1.678700108616284</v>
       </c>
       <c r="YM4">
-        <v>1.761721605960462</v>
+        <v>1.761721605960461</v>
       </c>
       <c r="YN4">
-        <v>0.08302149734417785</v>
+        <v>0.08302149734417696</v>
       </c>
       <c r="YO4">
         <v>1.678700108616284</v>
       </c>
       <c r="YP4">
-        <v>1.761721605960462</v>
+        <v>1.761721605960461</v>
       </c>
       <c r="YQ4">
         <v>4.407096549884062</v>
@@ -26925,22 +26968,22 @@
         <v>4.454492114708477</v>
       </c>
       <c r="AEH4">
-        <v>8.149240000907897E-06</v>
+        <v>8.146195494025148E-06</v>
       </c>
       <c r="AEI4">
-        <v>1.678648969816101E-06</v>
+        <v>1.680724451954091E-06</v>
       </c>
       <c r="AEJ4">
-        <v>7.577060977015831E-06</v>
+        <v>7.573309027799888E-06</v>
       </c>
       <c r="AEK4">
         <v>1.06116357251491E-05</v>
       </c>
       <c r="AEL4">
-        <v>3.034574748133269E-06</v>
+        <v>3.038326697349212E-06</v>
       </c>
       <c r="AEM4">
-        <v>7.577060977015831E-06</v>
+        <v>7.573309027799888E-06</v>
       </c>
       <c r="AEN4">
         <v>1.06116357251491E-05</v>
@@ -27051,25 +27094,25 @@
         <v>5.122830262229761E-06</v>
       </c>
       <c r="AFX4">
-        <v>1.198816425945217E-05</v>
+        <v>1.198840613972433E-05</v>
       </c>
       <c r="AFY4">
-        <v>6.930854526209131E-06</v>
+        <v>6.93156415038744E-06</v>
       </c>
       <c r="AFZ4">
         <v>9.625734919636893E-06</v>
       </c>
       <c r="AGA4">
-        <v>2.215497510409518E-05</v>
+        <v>2.215625792596615E-05</v>
       </c>
       <c r="AGB4">
-        <v>1.252924018445829E-05</v>
+        <v>1.253052300632926E-05</v>
       </c>
       <c r="AGC4">
         <v>9.625734919636893E-06</v>
       </c>
       <c r="AGD4">
-        <v>2.215497510409518E-05</v>
+        <v>2.215625792596615E-05</v>
       </c>
       <c r="AGE4">
         <v>1.801712253668403E-06</v>
